--- a/Documentation/Grill and Chill Pin Plan.xlsx
+++ b/Documentation/Grill and Chill Pin Plan.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="199">
   <si>
     <t>Pin</t>
   </si>
@@ -163,12 +163,12 @@
     <t>D5</t>
   </si>
   <si>
-    <t>temp sens</t>
-  </si>
-  <si>
     <t>D6</t>
   </si>
   <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
     <t>D7</t>
   </si>
   <si>
@@ -244,6 +244,9 @@
     <t>D21</t>
   </si>
   <si>
+    <t>E Stop</t>
+  </si>
+  <si>
     <t>Digital IO + HW Interrupt + SCL</t>
   </si>
   <si>
@@ -280,7 +283,7 @@
     <t>D26</t>
   </si>
   <si>
-    <t>TProbe0 - Amb</t>
+    <t>TProbe0</t>
   </si>
   <si>
     <t>D27</t>
@@ -299,6 +302,9 @@
   </si>
   <si>
     <t>D30</t>
+  </si>
+  <si>
+    <t>Home Switch</t>
   </si>
   <si>
     <t>D31</t>
@@ -497,7 +503,10 @@
     <t>This is how we get 48 counts per revolution.</t>
   </si>
   <si>
-    <t>Thermo Couple</t>
+    <t>Thermo Couples</t>
+  </si>
+  <si>
+    <t>Probe0</t>
   </si>
   <si>
     <t>Any Ground</t>
@@ -545,6 +554,30 @@
     <t>Neg-</t>
   </si>
   <si>
+    <t>Probe1</t>
+  </si>
+  <si>
+    <t>Probe2</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Input + Res</t>
+  </si>
+  <si>
+    <t>Resistor between VCC and pin on Arduino and Switch</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Makes the Buzz Buzz</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
     <t>BT Module</t>
   </si>
   <si>
@@ -554,7 +587,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>HC-06</t>
+    <t>HM-10</t>
   </si>
   <si>
     <t>Vcc</t>
@@ -563,6 +596,12 @@
     <t>Powers the module</t>
   </si>
   <si>
+    <t>So TX and RX are relative to the chip its soldered to.</t>
+  </si>
+  <si>
+    <t>Therefore the Arduino needs to RECEIVE what the BT module is TRANSMITTING</t>
+  </si>
+  <si>
     <t>TXD</t>
   </si>
   <si>
@@ -572,7 +611,7 @@
     <t>BT Transmit</t>
   </si>
   <si>
-    <t>So TX and RX are relative to the chip its soldered to.</t>
+    <t>and the oppisite is true.</t>
   </si>
   <si>
     <t>RXD</t>
@@ -584,58 +623,7 @@
     <t>BT Recvive</t>
   </si>
   <si>
-    <t>Therefore the Arduino needs to RECEIVE what the BT module is TRANSMITTING</t>
-  </si>
-  <si>
     <t>State</t>
-  </si>
-  <si>
-    <t>and the oppisite is true.</t>
-  </si>
-  <si>
-    <t>LCD Screen</t>
-  </si>
-  <si>
-    <t>VSS</t>
-  </si>
-  <si>
-    <t>LCD1602</t>
-  </si>
-  <si>
-    <t>VDD</t>
-  </si>
-  <si>
-    <t>Vo</t>
-  </si>
-  <si>
-    <t>Display Contrast</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>Register Select</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>Read .Write</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Enable Pin</t>
-  </si>
-  <si>
-    <t>Bit Value</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>K</t>
   </si>
 </sst>
 </file>
@@ -1015,19 +1003,16 @@
       <c r="B35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D35" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>48</v>
@@ -1175,57 +1160,59 @@
       <c r="B51" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D51" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>42</v>
@@ -1233,10 +1220,10 @@
     </row>
     <row r="57">
       <c r="B57" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>42</v>
@@ -1244,10 +1231,10 @@
     </row>
     <row r="58">
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>42</v>
@@ -1255,7 +1242,7 @@
     </row>
     <row r="59">
       <c r="B59" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
@@ -1264,16 +1251,18 @@
     </row>
     <row r="60">
       <c r="B60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D60" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
@@ -1282,7 +1271,7 @@
     </row>
     <row r="62">
       <c r="B62" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
@@ -1291,7 +1280,7 @@
     </row>
     <row r="63">
       <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
@@ -1300,7 +1289,7 @@
     </row>
     <row r="64">
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
@@ -1309,7 +1298,7 @@
     </row>
     <row r="65">
       <c r="B65" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
@@ -1318,7 +1307,7 @@
     </row>
     <row r="66">
       <c r="B66" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
@@ -1327,7 +1316,7 @@
     </row>
     <row r="67">
       <c r="B67" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
@@ -1336,7 +1325,7 @@
     </row>
     <row r="68">
       <c r="B68" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
@@ -1345,7 +1334,7 @@
     </row>
     <row r="69">
       <c r="B69" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
@@ -1354,10 +1343,10 @@
     </row>
     <row r="70">
       <c r="B70" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>42</v>
@@ -1365,10 +1354,10 @@
     </row>
     <row r="71">
       <c r="B71" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>42</v>
@@ -1376,7 +1365,7 @@
     </row>
     <row r="72">
       <c r="B72" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
@@ -1385,7 +1374,7 @@
     </row>
     <row r="73">
       <c r="B73" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
@@ -1394,7 +1383,7 @@
     </row>
     <row r="74">
       <c r="B74" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
@@ -1403,7 +1392,7 @@
     </row>
     <row r="75">
       <c r="B75" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
@@ -1412,7 +1401,7 @@
     </row>
     <row r="76">
       <c r="B76" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
@@ -1421,7 +1410,7 @@
     </row>
     <row r="77">
       <c r="B77" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
@@ -1430,7 +1419,7 @@
     </row>
     <row r="78">
       <c r="B78" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
@@ -1439,7 +1428,7 @@
     </row>
     <row r="79">
       <c r="B79" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
@@ -1448,7 +1437,7 @@
     </row>
     <row r="80">
       <c r="B80" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
@@ -1457,7 +1446,7 @@
     </row>
     <row r="81">
       <c r="B81" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
@@ -1466,7 +1455,7 @@
     </row>
     <row r="82">
       <c r="B82" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
@@ -1475,7 +1464,7 @@
     </row>
     <row r="83">
       <c r="B83" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
@@ -1484,110 +1473,110 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E95" s="4" t="str">
         <f t="shared" ref="E95:E96" si="1">HYPERLINK("https://www.pololu.com/file/0J571/Wild_Thumper_Encoder_Modification.pdf","Beefier Wire Guide")</f>
@@ -1596,13 +1585,13 @@
     </row>
     <row r="96">
       <c r="B96" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E96" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1611,333 +1600,497 @@
     </row>
     <row r="97">
       <c r="B97" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="4" t="str">
+      <c r="D104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="str">
         <f>HYPERLINK("https://github.com/adafruit/MAX6675-library","ARDUINO LIBRARY")</f>
         <v>ARDUINO LIBRARY</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="105">
       <c r="B105" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="E105" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="106">
       <c r="B106" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C107" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E107" s="4" t="str">
+      <c r="D107" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" s="4" t="str">
         <f>HYPERLINK("http://henrysbench.capnfatz.com/henrys-bench/arduino-temperature-measurements/max6675-temp-module-arduino-manual-and-tutorial/","Thermocouple IC Cheat Sheet")</f>
         <v>Thermocouple IC Cheat Sheet</v>
       </c>
     </row>
-    <row r="108">
-      <c r="B108" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E108" s="4" t="str">
+    <row r="109">
+      <c r="B109" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E109" s="4" t="str">
         <f>HYPERLINK("https://www.arduino.cc/en/Reference/SPI","SPI Library")</f>
         <v>SPI Library</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="str">
+        <f>HYPERLINK("https://github.com/adafruit/MAX6675-library","ARDUINO LIBRARY")</f>
+        <v>ARDUINO LIBRARY</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <f>HYPERLINK("http://henrysbench.capnfatz.com/henrys-bench/arduino-temperature-measurements/max6675-temp-module-arduino-manual-and-tutorial/","Thermocouple IC Cheat Sheet")</f>
+        <v>Thermocouple IC Cheat Sheet</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" s="4" t="str">
+        <f>HYPERLINK("https://www.arduino.cc/en/Reference/SPI","SPI Library")</f>
+        <v>SPI Library</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D120" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="str">
+        <f>HYPERLINK("https://github.com/adafruit/MAX6675-library","ARDUINO LIBRARY")</f>
+        <v>ARDUINO LIBRARY</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E124" s="4" t="str">
+        <f>HYPERLINK("http://henrysbench.capnfatz.com/henrys-bench/arduino-temperature-measurements/max6675-temp-module-arduino-manual-and-tutorial/","Thermocouple IC Cheat Sheet")</f>
+        <v>Thermocouple IC Cheat Sheet</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E125" s="4" t="str">
+        <f>HYPERLINK("https://www.arduino.cc/en/Reference/SPI","SPI Library")</f>
+        <v>SPI Library</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E111" s="4" t="str">
-        <f>HYPERLINK("https://maker.pro/arduino/tutorial/bluetooth-basics-how-to-control-led-using-smartphone-arduino","Source")</f>
-        <v>Source</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="4" t="str">
+      <c r="C128" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="str">
         <f>HYPERLINK("https://www.amazon.com/KEDSUM-Serial-Module-Wireless-Transceiver/dp/B0093XAV4U/ref=sr_1_4?s=electronics&amp;ie=UTF8&amp;qid=1541136599&amp;sr=1-4&amp;keywords=arduino+bluetooth+module","Amazon")</f>
         <v>Amazon</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="4" t="str">
-        <f>HYPERLINK("https://www.instructables.com/id/Add-bluetooth-to-your-Arduino-project-ArduinoHC-06/","Source")</f>
-        <v>Source</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E114" s="1" t="s">
+      <c r="E146" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="B115" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D118" t="str">
-        <f>5v</f>
-        <v>#ERROR!</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="B125" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="B127" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="B129" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="B130" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="B131" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="B132" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
